--- a/map/管理シート.xlsx
+++ b/map/管理シート.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\MyPrograms\santa\github\Brewfile\map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10065" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="データ" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="転記用データ" sheetId="2" r:id="rId4"/>
+    <sheet name="データ" sheetId="1" r:id="rId1"/>
+    <sheet name="転記用データ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>email</t>
   </si>
@@ -35,9 +43,6 @@
     <t>mobile_phone_number</t>
   </si>
   <si>
-    <t>replace_address</t>
-  </si>
-  <si>
     <t>about_kids_1</t>
   </si>
   <si>
@@ -77,9 +82,6 @@
     <t>delivery_timing_first</t>
   </si>
   <si>
-    <t>delivery_timing_second</t>
-  </si>
-  <si>
     <t>request_santa_sex</t>
   </si>
   <si>
@@ -164,13 +166,7 @@
     <t>自由記入欄,質問や要望等ございましたらご自由にご記入ください。ご回答には少々お時間を頂戴するかと思いますが、予めご了承ください</t>
   </si>
   <si>
-    <t>charity-santa@example.com</t>
-  </si>
-  <si>
     <t>黒須三太</t>
-  </si>
-  <si>
-    <t>クロスサンタ</t>
   </si>
   <si>
     <t>080-1234-5678</t>
@@ -196,9 +192,6 @@
     <t>サンタアパート203号</t>
   </si>
   <si>
-    <t>上記住所と同じ,上記住所と異なる</t>
-  </si>
-  <si>
     <t>19:00～20:00</t>
   </si>
   <si>
@@ -208,33 +201,414 @@
     <t>男性</t>
   </si>
   <si>
+    <t>運営サンタはイブ当日を楽しみにしていらっしゃる皆様のメッセージから元気を戴いております</t>
+  </si>
+  <si>
+    <t>クロスサンタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kids_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子供の人数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記住所と異なる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FaceBook</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>過去に参加したことがある</t>
-  </si>
-  <si>
-    <t>運営サンタはイブ当日を楽しみにしていらっしゃる皆様のメッセージから元気を戴いております</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どちらでもよい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>栗栖真須</t>
+    <rPh sb="0" eb="2">
+      <t>クリス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスマス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>090-1234-5678</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-santa@example.com</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>kurosu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-santa@example.com</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23-4567</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンタ府</t>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サンタ市サンタ町</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サンタハイツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンタ市サンタ町5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記住所と同じ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eplace_santa_message</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eplace_child_count</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>delivery_timing_second</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>replace_delivery_timing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elivery_timing</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>訪問時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>delivery_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>瑠度流布</t>
+    <rPh sb="0" eb="1">
+      <t>ル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ルフ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>replace_delivery_address</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eplace_delivery_name</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elivery_route</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡単な経路と特徴</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西口をでてまっすぐ歩き、ローソンを左折。2つ目の角にある白い建物です</t>
+    <rPh sb="0" eb="2">
+      <t>ニシグチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サセツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東口をでてまっすぐ歩き、セブンイレブンを右折、少し行ったところにある赤い建物です</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガシグチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウセツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>replace_delivery_root</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000"/>
+    <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -243,49 +617,321 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="4" width="19.57"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -299,305 +945,406 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="V3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5">
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,79 +1354,179 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <f t="shared" ref="A2:A11" si="1">IF(B2="","",ROW($A2)-1)</f>
-        <v>0001</v>
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <f t="shared" ref="A2:A11" si="0">IF(B2="","",ROW($A2)-1)</f>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>IF('データ'!$B3="","",'データ'!$B3)&amp;IF('データ'!$C3="","","("&amp;'データ'!$C3&amp;")")</f>
+        <f>IF(データ!$B3="","",データ!$B3)&amp;IF(データ!$C3="","","("&amp;データ!$C3&amp;")")</f>
         <v>黒須三太(クロスサンタ)</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="C2" t="str">
+        <f>IF(データ!$D3="","",データ!$D3)</f>
+        <v>080-1234-5678</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(データ!$L3="","",IF(データ!$L3="上記住所と同じ",データ!$B3,データ!$M3))</f>
+        <v>黒須三太</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(データ!$L3="","",IF(データ!$L3="上記住所と同じ",データ!$I3&amp;データ!$J3&amp;データ!$K3,データ!$O3&amp;データ!$P3&amp;データ!$Q3))</f>
+        <v>サンタ県サンタ市サンタ区サンタ町1-1サンタアパート203号</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(データ!$R3="","",データ!$R3)</f>
+        <v>西口をでてまっすぐ歩き、ローソンを左折。2つ目の角にある白い建物です</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(データ!$X3="","",データ!$X3)</f>
+        <v>運営サンタはイブ当日を楽しみにしていらっしゃる皆様のメッセージから元気を戴いております</v>
+      </c>
+      <c r="H2">
+        <f>IF(データ!$AA3="","",データ!$AA3)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(データ!$AB3="","",データ!$AB3)</f>
+        <v>19:00～20:00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(データ!$B4="","",データ!$B4)</f>
+        <v>栗栖真須</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(データ!$D4="","",データ!$D4)</f>
+        <v>090-1234-5678</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(データ!$L4="","",IF(データ!$L4="上記住所と同じ",データ!$B4,データ!$M4))</f>
+        <v>瑠度流布</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(データ!$L4="","",IF(データ!$L4="上記住所と同じ",データ!$I4&amp;データ!$J4&amp;データ!$K4,データ!$O4&amp;データ!$P4&amp;データ!$Q4))</f>
+        <v>サンタ県サンタ市サンタ町5-1サンタハイツ234号</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(データ!$R4="","",データ!$R4)</f>
+        <v>東口をでてまっすぐ歩き、セブンイレブンを右折、少し行ったところにある赤い建物です</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(データ!$X4="","",データ!$X4)</f>
+        <v>運営サンタはイブ当日を楽しみにしていらっしゃる皆様のメッセージから元気を戴いております</v>
+      </c>
+      <c r="H3">
+        <f>IF(データ!$AA4="","",データ!$AA4)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(データ!$AB4="","",データ!$AB4)</f>
+        <v>18:00～19:00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B3" t="str">
-        <f>IF('データ'!$B4="","",'データ'!$B4)</f>
+      <c r="H4" t="str">
+        <f>IF(データ!$AA5="","",データ!$AA5)</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="1"/>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="H5" t="str">
+        <f>IF(データ!$AA6="","",データ!$AA6)</f>
         <v/>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6" t="str">
+        <f>IF(データ!$AA7="","",データ!$AA7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8">
+      <c r="H7" t="str">
+        <f>IF(データ!$AA8="","",データ!$AA8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9">
+      <c r="H8" t="str">
+        <f>IF(データ!$AA9="","",データ!$AA9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10">
+      <c r="H9" t="str">
+        <f>IF(データ!$AA10="","",データ!$AA10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>